--- a/lib/xlsx/templates/template.xlsx
+++ b/lib/xlsx/templates/template.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emir.huseinbasic/Projects/xlsGraph/lib/xlsx/templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663CB252-F50A-9A4C-9364-53B6B74D5FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="SheetTemplate" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="barTemplate" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="lineTemplate" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="pieTemplate" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="scatterTemplate" sheetId="5" r:id="rId8"/>
+    <sheet name="SheetTemplate" sheetId="1" r:id="rId1"/>
+    <sheet name="barTemplate" sheetId="2" r:id="rId2"/>
+    <sheet name="lineTemplate" sheetId="3" r:id="rId3"/>
+    <sheet name="pieTemplate" sheetId="4" r:id="rId4"/>
+    <sheet name="scatterTemplate" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -47,16 +56,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,32 +75,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -119,10 +145,13 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -136,17 +165,56 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>barTemplate!$A$2:$B$2</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>barTemplate!$A$3:$B$3</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF89-0D4C-AED6-F69AFFEF4DD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -161,17 +229,56 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>barTemplate!$A$2:$B$2</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>barTemplate!$A$4:$B$4</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF89-0D4C-AED6-F69AFFEF4DD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -186,18 +293,66 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>barTemplate!$A$2:$B$2</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>barTemplate!$A$5:$B$5</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CF89-0D4C-AED6-F69AFFEF4DD1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="1287661931"/>
         <c:axId val="1679951776"/>
       </c:barChart>
@@ -222,15 +377,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -239,7 +386,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -252,9 +399,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1679951776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1679951776"/>
@@ -297,15 +450,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -330,9 +475,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1287661931"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -350,16 +498,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -368,7 +528,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" sz="2400">
+              <a:defRPr sz="2400" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -376,7 +536,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="2400">
+              <a:rPr lang="en-US" sz="2400" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -389,19 +549,28 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>lineTemplate!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tot</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="19050">
+            <a:ln w="19050" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="4285F4"/>
               </a:solidFill>
@@ -422,17 +591,47 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>lineTemplate!$B$1:$D$1</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>lineTemplate!$B$2:$D$2</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A92F-E449-9588-8870CA05DF14}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -440,10 +639,16 @@
           <c:tx>
             <c:strRef>
               <c:f>lineTemplate!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>frot</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="19050">
+            <a:ln w="19050" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="EA4335"/>
               </a:solidFill>
@@ -464,18 +669,58 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>lineTemplate!$B$1:$D$1</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>lineTemplate!$B$3:$D$3</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A92F-E449-9588-8870CA05DF14}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1156191164"/>
         <c:axId val="657065325"/>
       </c:lineChart>
@@ -501,7 +746,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -517,7 +762,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -530,9 +775,15 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="657065325"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="657065325"/>
@@ -575,15 +826,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -608,9 +851,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1156191164"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -628,16 +874,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -667,6 +925,7 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -677,36 +936,68 @@
           <c:tx>
             <c:strRef>
               <c:f>pieTemplate!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bbb</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="4285F4"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DEA5-BE49-8F66-79D1871FCC5D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>pieTemplate!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>c</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>pieTemplate!$B$2:$D$2</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DEA5-BE49-8F66-79D1871FCC5D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -715,6 +1006,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -734,16 +1026,28 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -773,16 +1077,24 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>scatterTemplate!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>aaa</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -805,16 +1117,46 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>scatterTemplate!$B$1:$D$1</c:f>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>scatterTemplate!$B$2:$D$2</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2A3-1349-8DC4-2D366C428678}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -822,6 +1164,12 @@
           <c:tx>
             <c:strRef>
               <c:f>scatterTemplate!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bbb</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -844,16 +1192,46 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>scatterTemplate!$B$1:$D$1</c:f>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>scatterTemplate!$B$3:$D$3</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B2A3-1349-8DC4-2D366C428678}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -907,15 +1285,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -940,9 +1310,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258715511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="258715511"/>
@@ -985,15 +1358,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1018,9 +1383,12 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="195423032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1038,20 +1406,24 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1060,9 +1432,15 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1071,7 +1449,43 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1081,18 +1495,24 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1101,7 +1521,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1111,7 +1531,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1120,9 +1540,15 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvPr id="4" name="Chart 4" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1131,37 +1557,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1171,7 +1567,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1361,138 +1757,146 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1503,50 +1907,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1557,35 +1963,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lib/xlsx/templates/template.xlsx
+++ b/lib/xlsx/templates/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emir.huseinbasic/Projects/xlsGraph/lib/xlsx/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emir.huseinbasic/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663CB252-F50A-9A4C-9364-53B6B74D5FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64B1167-4C39-EF40-AAB4-407A70C0DF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetTemplate" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4285F4"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -212,7 +212,7 @@
               </c14:invertSolidFillFmt>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF89-0D4C-AED6-F69AFFEF4DD1}"/>
+              <c16:uniqueId val="{00000000-8CA8-364A-B3CE-89B6EC351FFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -221,7 +221,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="EA4335"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -276,7 +276,7 @@
               </c14:invertSolidFillFmt>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CF89-0D4C-AED6-F69AFFEF4DD1}"/>
+              <c16:uniqueId val="{00000001-8CA8-364A-B3CE-89B6EC351FFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -285,7 +285,7 @@
           <c:order val="2"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="FBBC04"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -340,7 +340,7 @@
               </c14:invertSolidFillFmt>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CF89-0D4C-AED6-F69AFFEF4DD1}"/>
+              <c16:uniqueId val="{00000002-8CA8-364A-B3CE-89B6EC351FFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -536,7 +536,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2400" b="0">
+              <a:rPr sz="2400" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -629,7 +629,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A92F-E449-9588-8870CA05DF14}"/>
+              <c16:uniqueId val="{00000000-4EDE-264A-A824-42CBC3EB750C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -707,7 +707,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A92F-E449-9588-8870CA05DF14}"/>
+              <c16:uniqueId val="{00000001-4EDE-264A-A824-42CBC3EB750C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -746,7 +746,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="0">
+                  <a:rPr b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -826,7 +826,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -954,7 +954,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-DEA5-BE49-8F66-79D1871FCC5D}"/>
+                <c16:uniqueId val="{00000001-63BD-9847-AE27-1B00AA206A95}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -995,7 +995,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DEA5-BE49-8F66-79D1871FCC5D}"/>
+              <c16:uniqueId val="{00000002-63BD-9847-AE27-1B00AA206A95}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1064,7 +1064,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1081,7 +1081,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1097,11 +1097,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="7"/>
@@ -1154,7 +1149,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B2A3-1349-8DC4-2D366C428678}"/>
+              <c16:uniqueId val="{00000000-AA32-284D-B51E-E5B30F80765A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1172,11 +1167,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="7"/>
@@ -1229,7 +1219,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B2A3-1349-8DC4-2D366C428678}"/>
+              <c16:uniqueId val="{00000001-AA32-284D-B51E-E5B30F80765A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1285,7 +1275,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1358,7 +1348,7 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1391,25 +1381,6 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -1462,10 +1433,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -1833,7 +1804,7 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1948,7 +1919,7 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
